--- a/Gen8.xlsx
+++ b/Gen8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiami\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiami\Desktop\Projects\Pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1039">
   <si>
     <t>No.</t>
   </si>
@@ -2595,9 +2595,6 @@
     <t>#337</t>
   </si>
   <si>
-    <t>Indeedee</t>
-  </si>
-  <si>
     <t>Psychic Surge</t>
   </si>
   <si>
@@ -3139,6 +3136,12 @@
   </si>
   <si>
     <t>Escue-Noice</t>
+  </si>
+  <si>
+    <t>Indeedee-M</t>
+  </si>
+  <si>
+    <t>Indeedee-F</t>
   </si>
 </sst>
 </file>
@@ -3559,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G405" workbookViewId="0">
+      <selection activeCell="N414" sqref="N414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,25 +3573,25 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1009</v>
-      </c>
       <c r="C1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1" t="s">
         <v>1031</v>
       </c>
-      <c r="D1" t="s">
-        <v>1032</v>
-      </c>
       <c r="E1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F1" t="s">
         <v>1028</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1029</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1030</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -3609,7 +3612,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>0</v>
@@ -3634,7 +3637,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E2">
         <f t="array" ref="E2:G417">SMALL(IF($A$2=$P$3:$P$1072, MATCH(ROW($P$3:$P$1072),ROW($P$3:$P$1072)), ""), ROWS($A$1:A1))</f>
@@ -3706,7 +3709,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -3778,7 +3781,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -3839,7 +3842,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -3911,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -3972,7 +3975,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -4044,7 +4047,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -4105,7 +4108,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -4177,7 +4180,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -4238,7 +4241,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -4310,10 +4313,10 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D12" t="s">
         <v>1013</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1014</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -4374,10 +4377,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D13" t="s">
         <v>1013</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1014</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -4449,7 +4452,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -4510,7 +4513,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -4582,10 +4585,10 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
@@ -4646,7 +4649,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -4718,10 +4721,10 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D18" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -4782,10 +4785,10 @@
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -4857,10 +4860,10 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -4921,10 +4924,10 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -4996,7 +4999,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -5057,7 +5060,7 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -5118,10 +5121,10 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D24" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -5193,7 +5196,7 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -5254,7 +5257,7 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -5315,10 +5318,10 @@
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D27" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E27" s="7">
         <v>1</v>
@@ -5390,10 +5393,10 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -5454,10 +5457,10 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
@@ -5518,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
@@ -5590,7 +5593,7 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E31" s="7">
         <v>1</v>
@@ -5651,10 +5654,10 @@
         <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
@@ -5726,10 +5729,10 @@
         <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D33" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
@@ -5787,10 +5790,10 @@
         <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E34" s="7">
         <v>1</v>
@@ -5862,7 +5865,7 @@
         <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
@@ -5923,7 +5926,7 @@
         <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E36" s="7">
         <v>1</v>
@@ -5995,10 +5998,10 @@
         <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E37" s="7">
         <v>1</v>
@@ -6056,10 +6059,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D38" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
@@ -6131,10 +6134,10 @@
         <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
@@ -6192,7 +6195,7 @@
         <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E40" s="7">
         <v>1</v>
@@ -6264,10 +6267,10 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E41" s="7">
         <v>1</v>
@@ -6325,10 +6328,10 @@
         <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D42" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E42" s="7">
         <v>1</v>
@@ -6400,7 +6403,7 @@
         <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E43" s="7">
         <v>1</v>
@@ -6461,10 +6464,10 @@
         <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
@@ -6525,7 +6528,7 @@
         <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
@@ -6597,7 +6600,7 @@
         <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E46" s="7">
         <v>1</v>
@@ -6658,7 +6661,7 @@
         <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
@@ -6719,7 +6722,7 @@
         <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E48" s="7">
         <v>1</v>
@@ -6791,7 +6794,7 @@
         <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
@@ -6852,10 +6855,10 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D50" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E50" s="7">
         <v>1</v>
@@ -6916,7 +6919,7 @@
         <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E51" s="7">
         <v>1</v>
@@ -6988,7 +6991,7 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E52" s="7">
         <v>1</v>
@@ -7049,7 +7052,7 @@
         <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
@@ -7110,7 +7113,7 @@
         <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E54" s="7">
         <v>1</v>
@@ -7182,7 +7185,7 @@
         <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E55" s="7">
         <v>1</v>
@@ -7243,10 +7246,10 @@
         <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D56" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E56" s="7">
         <v>1</v>
@@ -7307,10 +7310,10 @@
         <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D57" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
@@ -7382,10 +7385,10 @@
         <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E58" s="7">
         <v>1</v>
@@ -7446,7 +7449,7 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E59" s="7">
         <v>1</v>
@@ -7518,10 +7521,10 @@
         <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D60" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E60" s="7">
         <v>1</v>
@@ -7582,10 +7585,10 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D61" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E61" s="7">
         <v>1</v>
@@ -7657,10 +7660,10 @@
         <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D62" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -7721,10 +7724,10 @@
         <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D63" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -7785,10 +7788,10 @@
         <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D64" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -7860,10 +7863,10 @@
         <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D65" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -7924,10 +7927,10 @@
         <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D66" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -7988,7 +7991,7 @@
         <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -8060,7 +8063,7 @@
         <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
@@ -8121,7 +8124,7 @@
         <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -8182,7 +8185,7 @@
         <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -8254,7 +8257,7 @@
         <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -8315,7 +8318,7 @@
         <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -8376,7 +8379,7 @@
         <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -8448,7 +8451,7 @@
         <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -8509,7 +8512,7 @@
         <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
@@ -8570,10 +8573,10 @@
         <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D76" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
@@ -8645,10 +8648,10 @@
         <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D77" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -8709,10 +8712,10 @@
         <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D78" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
@@ -8773,10 +8776,10 @@
         <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D79" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -8848,7 +8851,7 @@
         <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -8909,7 +8912,7 @@
         <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
@@ -8970,10 +8973,10 @@
         <v>250</v>
       </c>
       <c r="C82" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D82" t="s">
         <v>1023</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1024</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -9045,10 +9048,10 @@
         <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D83" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -9109,10 +9112,10 @@
         <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D84" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -9173,7 +9176,7 @@
         <v>257</v>
       </c>
       <c r="C85" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -9245,7 +9248,7 @@
         <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -9306,10 +9309,10 @@
         <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D87" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -9370,10 +9373,10 @@
         <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -9445,10 +9448,10 @@
         <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D89" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -9509,10 +9512,10 @@
         <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D90" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -9573,7 +9576,7 @@
         <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -9645,7 +9648,7 @@
         <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -9706,10 +9709,10 @@
         <v>280</v>
       </c>
       <c r="C93" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D93" t="s">
         <v>1014</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1015</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -9770,10 +9773,10 @@
         <v>283</v>
       </c>
       <c r="C94" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D94" t="s">
         <v>1014</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1015</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -9845,10 +9848,10 @@
         <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D95" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -9909,10 +9912,10 @@
         <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D96" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -9973,10 +9976,10 @@
         <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D97" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -10048,10 +10051,10 @@
         <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D98" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -10112,7 +10115,7 @@
         <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -10173,7 +10176,7 @@
         <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -10245,10 +10248,10 @@
         <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D101" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -10309,10 +10312,10 @@
         <v>305</v>
       </c>
       <c r="C102" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D102" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E102" s="7">
         <v>1</v>
@@ -10373,7 +10376,7 @@
         <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -10445,10 +10448,10 @@
         <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D104" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -10509,10 +10512,10 @@
         <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D105" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -10573,10 +10576,10 @@
         <v>314</v>
       </c>
       <c r="C106" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D106" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -10648,10 +10651,10 @@
         <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D107" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -10712,7 +10715,7 @@
         <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -10773,7 +10776,7 @@
         <v>323</v>
       </c>
       <c r="C109" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -10845,7 +10848,7 @@
         <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -10906,7 +10909,7 @@
         <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -10967,7 +10970,7 @@
         <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -11039,10 +11042,10 @@
         <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D113" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -11103,7 +11106,7 @@
         <v>335</v>
       </c>
       <c r="C114" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -11164,7 +11167,7 @@
         <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -11236,7 +11239,7 @@
         <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -11297,10 +11300,10 @@
         <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D117" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -11361,10 +11364,10 @@
         <v>346</v>
       </c>
       <c r="C118" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D118" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -11436,10 +11439,10 @@
         <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D119" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
@@ -11500,10 +11503,10 @@
         <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D120" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -11564,10 +11567,10 @@
         <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D121" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -11639,10 +11642,10 @@
         <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D122" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -11703,10 +11706,10 @@
         <v>359</v>
       </c>
       <c r="C123" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D123" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -11778,10 +11781,10 @@
         <v>361</v>
       </c>
       <c r="C124" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D124" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -11842,10 +11845,10 @@
         <v>363</v>
       </c>
       <c r="C125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D125" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -11917,10 +11920,10 @@
         <v>367</v>
       </c>
       <c r="C126" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D126" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -11981,7 +11984,7 @@
         <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -12042,7 +12045,7 @@
         <v>373</v>
       </c>
       <c r="C128" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -12114,7 +12117,7 @@
         <v>375</v>
       </c>
       <c r="C129" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -12175,7 +12178,7 @@
         <v>377</v>
       </c>
       <c r="C130" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -12236,10 +12239,10 @@
         <v>380</v>
       </c>
       <c r="C131" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D131" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -12311,10 +12314,10 @@
         <v>382</v>
       </c>
       <c r="C132" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D132" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -12375,7 +12378,7 @@
         <v>384</v>
       </c>
       <c r="C133" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
@@ -12436,10 +12439,10 @@
         <v>386</v>
       </c>
       <c r="C134" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D134" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -12511,10 +12514,10 @@
         <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D135" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -12575,7 +12578,7 @@
         <v>391</v>
       </c>
       <c r="C136" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E136" s="7">
         <v>1</v>
@@ -12636,7 +12639,7 @@
         <v>393</v>
       </c>
       <c r="C137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -12708,7 +12711,7 @@
         <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -12769,7 +12772,7 @@
         <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -12830,7 +12833,7 @@
         <v>399</v>
       </c>
       <c r="C140" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -12902,7 +12905,7 @@
         <v>401</v>
       </c>
       <c r="C141" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -12963,10 +12966,10 @@
         <v>403</v>
       </c>
       <c r="C142" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D142" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -13027,10 +13030,10 @@
         <v>405</v>
       </c>
       <c r="C143" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D143" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -13102,10 +13105,10 @@
         <v>407</v>
       </c>
       <c r="C144" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D144" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -13166,7 +13169,7 @@
         <v>409</v>
       </c>
       <c r="C145" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -13227,10 +13230,10 @@
         <v>411</v>
       </c>
       <c r="C146" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D146" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -13302,7 +13305,7 @@
         <v>414</v>
       </c>
       <c r="C147" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -13363,7 +13366,7 @@
         <v>417</v>
       </c>
       <c r="C148" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -13435,7 +13438,7 @@
         <v>419</v>
       </c>
       <c r="C149" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -13496,7 +13499,7 @@
         <v>421</v>
       </c>
       <c r="C150" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -13568,7 +13571,7 @@
         <v>424</v>
       </c>
       <c r="C151" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -13629,10 +13632,10 @@
         <v>427</v>
       </c>
       <c r="C152" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D152" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -13704,7 +13707,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -13765,7 +13768,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -13837,7 +13840,7 @@
         <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -13898,7 +13901,7 @@
         <v>434</v>
       </c>
       <c r="C156" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -13959,7 +13962,7 @@
         <v>436</v>
       </c>
       <c r="C157" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -14031,7 +14034,7 @@
         <v>439</v>
       </c>
       <c r="C158" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -14092,7 +14095,7 @@
         <v>442</v>
       </c>
       <c r="C159" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -14153,7 +14156,7 @@
         <v>445</v>
       </c>
       <c r="C160" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -14225,10 +14228,10 @@
         <v>447</v>
       </c>
       <c r="C161" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D161" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -14289,10 +14292,10 @@
         <v>451</v>
       </c>
       <c r="C162" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D162" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -14353,7 +14356,7 @@
         <v>453</v>
       </c>
       <c r="C163" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -14425,10 +14428,10 @@
         <v>456</v>
       </c>
       <c r="C164" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D164" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -14489,10 +14492,10 @@
         <v>458</v>
       </c>
       <c r="C165" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D165" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -14553,7 +14556,7 @@
         <v>460</v>
       </c>
       <c r="C166" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -14625,7 +14628,7 @@
         <v>465</v>
       </c>
       <c r="C167" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -14686,7 +14689,7 @@
         <v>467</v>
       </c>
       <c r="C168" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -14747,10 +14750,10 @@
         <v>470</v>
       </c>
       <c r="C169" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D169" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -14822,7 +14825,7 @@
         <v>472</v>
       </c>
       <c r="C170" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -14883,7 +14886,7 @@
         <v>474</v>
       </c>
       <c r="C171" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -14944,7 +14947,7 @@
         <v>476</v>
       </c>
       <c r="C172" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -15016,7 +15019,7 @@
         <v>479</v>
       </c>
       <c r="C173" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -15077,7 +15080,7 @@
         <v>481</v>
       </c>
       <c r="C174" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E174" s="7">
         <v>1</v>
@@ -15138,7 +15141,7 @@
         <v>483</v>
       </c>
       <c r="C175" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E175" s="7">
         <v>1</v>
@@ -15210,10 +15213,10 @@
         <v>485</v>
       </c>
       <c r="C176" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D176" t="s">
         <v>1014</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1015</v>
       </c>
       <c r="E176" s="7">
         <v>1</v>
@@ -15274,10 +15277,10 @@
         <v>488</v>
       </c>
       <c r="C177" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D177" t="s">
         <v>1014</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1015</v>
       </c>
       <c r="E177" s="7">
         <v>1</v>
@@ -15338,10 +15341,10 @@
         <v>490</v>
       </c>
       <c r="C178" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D178" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E178" s="7">
         <v>1</v>
@@ -15413,10 +15416,10 @@
         <v>492</v>
       </c>
       <c r="C179" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D179" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E179" s="7">
         <v>1</v>
@@ -15477,10 +15480,10 @@
         <v>494</v>
       </c>
       <c r="C180" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D180" t="s">
         <v>1020</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1021</v>
       </c>
       <c r="E180" s="7">
         <v>1</v>
@@ -15541,10 +15544,10 @@
         <v>497</v>
       </c>
       <c r="C181" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D181" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E181" s="7">
         <v>1</v>
@@ -15616,7 +15619,7 @@
         <v>499</v>
       </c>
       <c r="C182" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E182" s="7">
         <v>1</v>
@@ -15677,7 +15680,7 @@
         <v>502</v>
       </c>
       <c r="C183" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E183" s="7">
         <v>1</v>
@@ -15749,7 +15752,7 @@
         <v>504</v>
       </c>
       <c r="C184" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E184" s="7">
         <v>1</v>
@@ -15810,7 +15813,7 @@
         <v>504</v>
       </c>
       <c r="C185" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E185" s="7">
         <v>1</v>
@@ -15882,7 +15885,7 @@
         <v>507</v>
       </c>
       <c r="C186" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E186" s="7">
         <v>1</v>
@@ -15943,7 +15946,7 @@
         <v>511</v>
       </c>
       <c r="C187" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E187" s="7">
         <v>1</v>
@@ -16004,7 +16007,7 @@
         <v>513</v>
       </c>
       <c r="C188" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E188" s="7">
         <v>1</v>
@@ -16076,7 +16079,7 @@
         <v>516</v>
       </c>
       <c r="C189" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E189" s="7">
         <v>1</v>
@@ -16137,10 +16140,10 @@
         <v>518</v>
       </c>
       <c r="C190" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D190" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E190" s="7">
         <v>1</v>
@@ -16201,10 +16204,10 @@
         <v>520</v>
       </c>
       <c r="C191" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D191" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E191" s="7">
         <v>1</v>
@@ -16276,10 +16279,10 @@
         <v>522</v>
       </c>
       <c r="C192" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D192" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E192" s="7">
         <v>1</v>
@@ -16340,10 +16343,10 @@
         <v>525</v>
       </c>
       <c r="C193" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D193" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E193" s="7">
         <v>1</v>
@@ -16404,10 +16407,10 @@
         <v>528</v>
       </c>
       <c r="C194" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D194" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E194" s="7">
         <v>1</v>
@@ -16479,10 +16482,10 @@
         <v>530</v>
       </c>
       <c r="C195" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D195" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E195" s="7">
         <v>1</v>
@@ -16543,7 +16546,7 @@
         <v>532</v>
       </c>
       <c r="C196" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E196" s="7">
         <v>1</v>
@@ -16604,7 +16607,7 @@
         <v>534</v>
       </c>
       <c r="C197" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E197" s="7">
         <v>1</v>
@@ -16676,7 +16679,7 @@
         <v>536</v>
       </c>
       <c r="C198" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E198" s="7">
         <v>1</v>
@@ -16737,7 +16740,7 @@
         <v>538</v>
       </c>
       <c r="C199" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E199" s="7">
         <v>1</v>
@@ -16798,7 +16801,7 @@
         <v>540</v>
       </c>
       <c r="C200" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E200" s="7">
         <v>1</v>
@@ -16870,7 +16873,7 @@
         <v>542</v>
       </c>
       <c r="C201" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E201" s="7">
         <v>1</v>
@@ -16931,7 +16934,7 @@
         <v>545</v>
       </c>
       <c r="C202" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E202" s="7">
         <v>1</v>
@@ -16992,7 +16995,7 @@
         <v>547</v>
       </c>
       <c r="C203" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E203" s="7">
         <v>1</v>
@@ -17064,7 +17067,7 @@
         <v>549</v>
       </c>
       <c r="C204" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E204" s="7">
         <v>1</v>
@@ -17125,7 +17128,7 @@
         <v>551</v>
       </c>
       <c r="C205" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E205" s="7">
         <v>1</v>
@@ -17186,7 +17189,7 @@
         <v>553</v>
       </c>
       <c r="C206" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E206" s="7">
         <v>1</v>
@@ -17258,7 +17261,7 @@
         <v>555</v>
       </c>
       <c r="C207" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E207" s="7">
         <v>1</v>
@@ -17319,10 +17322,10 @@
         <v>558</v>
       </c>
       <c r="C208" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D208" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E208" s="7">
         <v>1</v>
@@ -17383,10 +17386,10 @@
         <v>561</v>
       </c>
       <c r="C209" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D209" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E209" s="7">
         <v>1</v>
@@ -17458,10 +17461,10 @@
         <v>563</v>
       </c>
       <c r="C210" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D210" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E210" s="7">
         <v>1</v>
@@ -17522,7 +17525,7 @@
         <v>565</v>
       </c>
       <c r="C211" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E211" s="7">
         <v>1</v>
@@ -17583,7 +17586,7 @@
         <v>567</v>
       </c>
       <c r="C212" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E212" s="7">
         <v>1</v>
@@ -17655,7 +17658,7 @@
         <v>567</v>
       </c>
       <c r="C213" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E213" s="7">
         <v>1</v>
@@ -17716,7 +17719,7 @@
         <v>569</v>
       </c>
       <c r="C214" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E214" s="7">
         <v>1</v>
@@ -17777,7 +17780,7 @@
         <v>571</v>
       </c>
       <c r="C215" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E215" s="7">
         <v>1</v>
@@ -17849,7 +17852,7 @@
         <v>573</v>
       </c>
       <c r="C216" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E216" s="7">
         <v>1</v>
@@ -17910,7 +17913,7 @@
         <v>575</v>
       </c>
       <c r="C217" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E217" s="7">
         <v>1</v>
@@ -17971,10 +17974,10 @@
         <v>577</v>
       </c>
       <c r="C218" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D218" t="s">
         <v>1012</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1013</v>
       </c>
       <c r="E218" s="7">
         <v>1</v>
@@ -18046,10 +18049,10 @@
         <v>580</v>
       </c>
       <c r="C219" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D219" t="s">
         <v>1012</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1013</v>
       </c>
       <c r="E219" s="7">
         <v>1</v>
@@ -18110,7 +18113,7 @@
         <v>582</v>
       </c>
       <c r="C220" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E220" s="7">
         <v>1</v>
@@ -18182,7 +18185,7 @@
         <v>585</v>
       </c>
       <c r="C221" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E221" s="7">
         <v>1</v>
@@ -18240,7 +18243,7 @@
         <v>587</v>
       </c>
       <c r="C222" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E222" s="7">
         <v>1</v>
@@ -18312,7 +18315,7 @@
         <v>589</v>
       </c>
       <c r="C223" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E223" s="7">
         <v>1</v>
@@ -18370,10 +18373,10 @@
         <v>591</v>
       </c>
       <c r="C224" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D224" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E224" s="7">
         <v>1</v>
@@ -18445,10 +18448,10 @@
         <v>594</v>
       </c>
       <c r="C225" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D225" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E225" s="7">
         <v>1</v>
@@ -18509,10 +18512,10 @@
         <v>596</v>
       </c>
       <c r="C226" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D226" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E226" s="7">
         <v>1</v>
@@ -18573,10 +18576,10 @@
         <v>599</v>
       </c>
       <c r="C227" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D227" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E227" s="7">
         <v>1</v>
@@ -18648,10 +18651,10 @@
         <v>601</v>
       </c>
       <c r="C228" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D228" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E228" s="7">
         <v>1</v>
@@ -18712,10 +18715,10 @@
         <v>603</v>
       </c>
       <c r="C229" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D229" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E229" s="7">
         <v>1</v>
@@ -18776,10 +18779,10 @@
         <v>605</v>
       </c>
       <c r="C230" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D230" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E230" s="7">
         <v>1</v>
@@ -18851,10 +18854,10 @@
         <v>608</v>
       </c>
       <c r="C231" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D231" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E231" s="7">
         <v>1</v>
@@ -18915,10 +18918,10 @@
         <v>611</v>
       </c>
       <c r="C232" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D232" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E232" s="7">
         <v>1</v>
@@ -18979,10 +18982,10 @@
         <v>613</v>
       </c>
       <c r="C233" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D233" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E233" s="7">
         <v>1</v>
@@ -19054,7 +19057,7 @@
         <v>615</v>
       </c>
       <c r="C234" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E234" s="7">
         <v>1</v>
@@ -19115,10 +19118,10 @@
         <v>618</v>
       </c>
       <c r="C235" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D235" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E235" s="7">
         <v>1</v>
@@ -19179,10 +19182,10 @@
         <v>620</v>
       </c>
       <c r="C236" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D236" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E236" s="7">
         <v>1</v>
@@ -19254,10 +19257,10 @@
         <v>623</v>
       </c>
       <c r="C237" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D237" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E237" s="7">
         <v>1</v>
@@ -19318,10 +19321,10 @@
         <v>626</v>
       </c>
       <c r="C238" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D238" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E238" s="7">
         <v>1</v>
@@ -19382,10 +19385,10 @@
         <v>628</v>
       </c>
       <c r="C239" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D239" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E239" s="7">
         <v>1</v>
@@ -19457,7 +19460,7 @@
         <v>630</v>
       </c>
       <c r="C240" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E240" s="7">
         <v>1</v>
@@ -19518,7 +19521,7 @@
         <v>632</v>
       </c>
       <c r="C241" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E241" s="7">
         <v>1</v>
@@ -19579,10 +19582,10 @@
         <v>635</v>
       </c>
       <c r="C242" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D242" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E242" s="7">
         <v>1</v>
@@ -19654,10 +19657,10 @@
         <v>637</v>
       </c>
       <c r="C243" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D243" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E243" s="7">
         <v>1</v>
@@ -19718,10 +19721,10 @@
         <v>639</v>
       </c>
       <c r="C244" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D244" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E244" s="7">
         <v>1</v>
@@ -19782,7 +19785,7 @@
         <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E245" s="7">
         <v>1</v>
@@ -19854,7 +19857,7 @@
         <v>643</v>
       </c>
       <c r="C246" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E246" s="7">
         <v>1</v>
@@ -19915,10 +19918,10 @@
         <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D247" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E247" s="7">
         <v>1</v>
@@ -19979,10 +19982,10 @@
         <v>647</v>
       </c>
       <c r="C248" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D248" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E248" s="7">
         <v>1</v>
@@ -20054,10 +20057,10 @@
         <v>650</v>
       </c>
       <c r="C249" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D249" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E249" s="7">
         <v>1</v>
@@ -20118,10 +20121,10 @@
         <v>652</v>
       </c>
       <c r="C250" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D250" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E250" s="7">
         <v>1</v>
@@ -20182,10 +20185,10 @@
         <v>654</v>
       </c>
       <c r="C251" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D251" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E251" s="7">
         <v>1</v>
@@ -20257,7 +20260,7 @@
         <v>656</v>
       </c>
       <c r="C252" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E252" s="7">
         <v>1</v>
@@ -20318,7 +20321,7 @@
         <v>658</v>
       </c>
       <c r="C253" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E253" s="7">
         <v>1</v>
@@ -20379,7 +20382,7 @@
         <v>660</v>
       </c>
       <c r="C254" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E254" s="7">
         <v>1</v>
@@ -20451,10 +20454,10 @@
         <v>663</v>
       </c>
       <c r="C255" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D255" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E255" s="7">
         <v>1</v>
@@ -20515,7 +20518,7 @@
         <v>666</v>
       </c>
       <c r="C256" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E256" s="7">
         <v>1</v>
@@ -20576,7 +20579,7 @@
         <v>668</v>
       </c>
       <c r="C257" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E257" s="7">
         <v>1</v>
@@ -20648,7 +20651,7 @@
         <v>670</v>
       </c>
       <c r="C258" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E258" s="7">
         <v>1</v>
@@ -20709,7 +20712,7 @@
         <v>674</v>
       </c>
       <c r="C259" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E259" s="7">
         <v>1</v>
@@ -20770,7 +20773,7 @@
         <v>676</v>
       </c>
       <c r="C260" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E260" s="7">
         <v>1</v>
@@ -20842,7 +20845,7 @@
         <v>678</v>
       </c>
       <c r="C261" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E261" s="7">
         <v>1</v>
@@ -20903,10 +20906,10 @@
         <v>681</v>
       </c>
       <c r="C262" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D262" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E262" s="7">
         <v>1</v>
@@ -20978,10 +20981,10 @@
         <v>683</v>
       </c>
       <c r="C263" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D263" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E263" s="7">
         <v>1</v>
@@ -21042,7 +21045,7 @@
         <v>685</v>
       </c>
       <c r="C264" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E264" s="7">
         <v>1</v>
@@ -21114,7 +21117,7 @@
         <v>687</v>
       </c>
       <c r="C265" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E265" s="7">
         <v>1</v>
@@ -21175,10 +21178,10 @@
         <v>690</v>
       </c>
       <c r="C266" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D266" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E266" s="7">
         <v>1</v>
@@ -21239,10 +21242,10 @@
         <v>692</v>
       </c>
       <c r="C267" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D267" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E267" s="7">
         <v>1</v>
@@ -21314,10 +21317,10 @@
         <v>694</v>
       </c>
       <c r="C268" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D268" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E268" s="7">
         <v>1</v>
@@ -21378,10 +21381,10 @@
         <v>696</v>
       </c>
       <c r="C269" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D269" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E269" s="7">
         <v>1</v>
@@ -21442,10 +21445,10 @@
         <v>698</v>
       </c>
       <c r="C270" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D270" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E270" s="7">
         <v>1</v>
@@ -21517,7 +21520,7 @@
         <v>701</v>
       </c>
       <c r="C271" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E271" s="7">
         <v>1</v>
@@ -21578,7 +21581,7 @@
         <v>703</v>
       </c>
       <c r="C272" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E272" s="7">
         <v>1</v>
@@ -21639,7 +21642,7 @@
         <v>705</v>
       </c>
       <c r="C273" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E273" s="7">
         <v>1</v>
@@ -21711,7 +21714,7 @@
         <v>707</v>
       </c>
       <c r="C274" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E274" s="7">
         <v>1</v>
@@ -21772,7 +21775,7 @@
         <v>709</v>
       </c>
       <c r="C275" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E275" s="7">
         <v>1</v>
@@ -21833,7 +21836,7 @@
         <v>711</v>
       </c>
       <c r="C276" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E276" s="7">
         <v>1</v>
@@ -21905,7 +21908,7 @@
         <v>713</v>
       </c>
       <c r="C277" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E277" s="7">
         <v>1</v>
@@ -21966,10 +21969,10 @@
         <v>715</v>
       </c>
       <c r="C278" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D278" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E278" s="7">
         <v>1</v>
@@ -22030,7 +22033,7 @@
         <v>717</v>
       </c>
       <c r="C279" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E279" s="7">
         <v>1</v>
@@ -22102,7 +22105,7 @@
         <v>719</v>
       </c>
       <c r="C280" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E280" s="7">
         <v>1</v>
@@ -22163,7 +22166,7 @@
         <v>721</v>
       </c>
       <c r="C281" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E281" s="7">
         <v>1</v>
@@ -22224,7 +22227,7 @@
         <v>724</v>
       </c>
       <c r="C282" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E282" s="7">
         <v>1</v>
@@ -22296,7 +22299,7 @@
         <v>726</v>
       </c>
       <c r="C283" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E283" s="7">
         <v>1</v>
@@ -22357,7 +22360,7 @@
         <v>729</v>
       </c>
       <c r="C284" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E284" s="7">
         <v>1</v>
@@ -22429,10 +22432,10 @@
         <v>731</v>
       </c>
       <c r="C285" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D285" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E285" s="7">
         <v>1</v>
@@ -22493,10 +22496,10 @@
         <v>733</v>
       </c>
       <c r="C286" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D286" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E286" s="7">
         <v>1</v>
@@ -22568,10 +22571,10 @@
         <v>735</v>
       </c>
       <c r="C287" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D287" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E287" s="7">
         <v>1</v>
@@ -22629,10 +22632,10 @@
         <v>737</v>
       </c>
       <c r="C288" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D288" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E288" s="7">
         <v>1</v>
@@ -22704,10 +22707,10 @@
         <v>739</v>
       </c>
       <c r="C289" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D289" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E289" s="7">
         <v>1</v>
@@ -22768,10 +22771,10 @@
         <v>741</v>
       </c>
       <c r="C290" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D290" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E290" s="7">
         <v>1</v>
@@ -22832,10 +22835,10 @@
         <v>743</v>
       </c>
       <c r="C291" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D291" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E291" s="7">
         <v>1</v>
@@ -22907,10 +22910,10 @@
         <v>745</v>
       </c>
       <c r="C292" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D292" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
@@ -22971,10 +22974,10 @@
         <v>747</v>
       </c>
       <c r="C293" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D293" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E293" s="7">
         <v>1</v>
@@ -23035,10 +23038,10 @@
         <v>749</v>
       </c>
       <c r="C294" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D294" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E294" s="7">
         <v>1</v>
@@ -23110,10 +23113,10 @@
         <v>751</v>
       </c>
       <c r="C295" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D295" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -23174,10 +23177,10 @@
         <v>753</v>
       </c>
       <c r="C296" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D296" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E296" s="7">
         <v>1</v>
@@ -23238,10 +23241,10 @@
         <v>755</v>
       </c>
       <c r="C297" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D297" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E297" s="7">
         <v>1</v>
@@ -23313,10 +23316,10 @@
         <v>757</v>
       </c>
       <c r="C298" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D298" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E298" s="7">
         <v>1</v>
@@ -23377,10 +23380,10 @@
         <v>760</v>
       </c>
       <c r="C299" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D299" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E299" s="7">
         <v>1</v>
@@ -23441,7 +23444,7 @@
         <v>762</v>
       </c>
       <c r="C300" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E300" s="7">
         <v>1</v>
@@ -23513,10 +23516,10 @@
         <v>764</v>
       </c>
       <c r="C301" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D301" t="s">
         <v>1014</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1015</v>
       </c>
       <c r="E301" s="7">
         <v>1</v>
@@ -23577,7 +23580,7 @@
         <v>767</v>
       </c>
       <c r="C302" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E302" s="7">
         <v>1</v>
@@ -23638,10 +23641,10 @@
         <v>769</v>
       </c>
       <c r="C303" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D303" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E303" s="7">
         <v>1</v>
@@ -23713,7 +23716,7 @@
         <v>771</v>
       </c>
       <c r="C304" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E304" s="7">
         <v>1</v>
@@ -23774,10 +23777,10 @@
         <v>773</v>
       </c>
       <c r="C305" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D305" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E305" s="7">
         <v>1</v>
@@ -23838,7 +23841,7 @@
         <v>776</v>
       </c>
       <c r="C306" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E306" s="7">
         <v>1</v>
@@ -23910,7 +23913,7 @@
         <v>778</v>
       </c>
       <c r="C307" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E307" s="7">
         <v>1</v>
@@ -23971,10 +23974,10 @@
         <v>780</v>
       </c>
       <c r="C308" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D308" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E308" s="7">
         <v>1</v>
@@ -24035,10 +24038,10 @@
         <v>782</v>
       </c>
       <c r="C309" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D309" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E309" s="7">
         <v>1</v>
@@ -24110,10 +24113,10 @@
         <v>784</v>
       </c>
       <c r="C310" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D310" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E310" s="7">
         <v>1</v>
@@ -24174,10 +24177,10 @@
         <v>786</v>
       </c>
       <c r="C311" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D311" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E311" s="7">
         <v>1</v>
@@ -24238,10 +24241,10 @@
         <v>789</v>
       </c>
       <c r="C312" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D312" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E312" s="7">
         <v>1</v>
@@ -24313,10 +24316,10 @@
         <v>791</v>
       </c>
       <c r="C313" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D313" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E313" s="7">
         <v>1</v>
@@ -24377,10 +24380,10 @@
         <v>794</v>
       </c>
       <c r="C314" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D314" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E314" s="7">
         <v>1</v>
@@ -24441,10 +24444,10 @@
         <v>796</v>
       </c>
       <c r="C315" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D315" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E315" s="7">
         <v>1</v>
@@ -24516,10 +24519,10 @@
         <v>796</v>
       </c>
       <c r="C316" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D316" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E316" s="7">
         <v>1</v>
@@ -24580,7 +24583,7 @@
         <v>799</v>
       </c>
       <c r="C317" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E317" s="7">
         <v>1</v>
@@ -24652,7 +24655,7 @@
         <v>802</v>
       </c>
       <c r="C318" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -24713,7 +24716,7 @@
         <v>804</v>
       </c>
       <c r="C319" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E319" s="7">
         <v>1</v>
@@ -24785,7 +24788,7 @@
         <v>806</v>
       </c>
       <c r="C320" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E320" s="7">
         <v>1</v>
@@ -24846,10 +24849,10 @@
         <v>808</v>
       </c>
       <c r="C321" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D321" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E321" s="7">
         <v>1</v>
@@ -24910,7 +24913,7 @@
         <v>811</v>
       </c>
       <c r="C322" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E322" s="7">
         <v>1</v>
@@ -24982,10 +24985,10 @@
         <v>813</v>
       </c>
       <c r="C323" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D323" t="s">
         <v>1016</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1017</v>
       </c>
       <c r="E323" s="7">
         <v>1</v>
@@ -25046,10 +25049,10 @@
         <v>816</v>
       </c>
       <c r="C324" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D324" t="s">
         <v>1016</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1017</v>
       </c>
       <c r="E324" s="7">
         <v>1</v>
@@ -25110,10 +25113,10 @@
         <v>818</v>
       </c>
       <c r="C325" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D325" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E325" s="7">
         <v>1</v>
@@ -25185,7 +25188,7 @@
         <v>820</v>
       </c>
       <c r="C326" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E326" s="7">
         <v>1</v>
@@ -25246,10 +25249,10 @@
         <v>822</v>
       </c>
       <c r="C327" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D327" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E327" s="7">
         <v>1</v>
@@ -25310,10 +25313,10 @@
         <v>824</v>
       </c>
       <c r="C328" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D328" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E328" s="7">
         <v>1</v>
@@ -25385,7 +25388,7 @@
         <v>826</v>
       </c>
       <c r="C329" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E329" s="7">
         <v>1</v>
@@ -25446,7 +25449,7 @@
         <v>828</v>
       </c>
       <c r="C330" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E330" s="7">
         <v>1</v>
@@ -25507,7 +25510,7 @@
         <v>830</v>
       </c>
       <c r="C331" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E331" s="7">
         <v>1</v>
@@ -25579,10 +25582,10 @@
         <v>832</v>
       </c>
       <c r="C332" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D332" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E332" s="7">
         <v>1</v>
@@ -25643,7 +25646,7 @@
         <v>832</v>
       </c>
       <c r="C333" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E333" s="7">
         <v>1</v>
@@ -25704,10 +25707,10 @@
         <v>835</v>
       </c>
       <c r="C334" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D334" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E334" s="7">
         <v>1</v>
@@ -25779,7 +25782,7 @@
         <v>837</v>
       </c>
       <c r="C335" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E335" s="7">
         <v>1</v>
@@ -25840,10 +25843,10 @@
         <v>840</v>
       </c>
       <c r="C336" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D336" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E336" s="7">
         <v>1</v>
@@ -25915,10 +25918,10 @@
         <v>842</v>
       </c>
       <c r="C337" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D337" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E337" s="7">
         <v>1</v>
@@ -25979,10 +25982,10 @@
         <v>844</v>
       </c>
       <c r="C338" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D338" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E338" s="7">
         <v>1</v>
@@ -26043,7 +26046,7 @@
         <v>847</v>
       </c>
       <c r="C339" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E339" s="7">
         <v>1</v>
@@ -26115,10 +26118,10 @@
         <v>850</v>
       </c>
       <c r="C340" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D340" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E340" s="7">
         <v>1</v>
@@ -26179,7 +26182,7 @@
         <v>852</v>
       </c>
       <c r="C341" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E341" s="7">
         <v>1</v>
@@ -26240,7 +26243,7 @@
         <v>854</v>
       </c>
       <c r="C342" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E342" s="7">
         <v>1</v>
@@ -26309,13 +26312,13 @@
         <v>855</v>
       </c>
       <c r="B343" t="s">
-        <v>856</v>
+        <v>1037</v>
       </c>
       <c r="C343" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D343" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E343" s="7">
         <v>1</v>
@@ -26373,13 +26376,13 @@
         <v>855</v>
       </c>
       <c r="B344" t="s">
-        <v>856</v>
+        <v>1038</v>
       </c>
       <c r="C344" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D344" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E344" s="7">
         <v>1</v>
@@ -26391,28 +26394,22 @@
         <v>1</v>
       </c>
       <c r="H344" s="7">
-        <f t="shared" si="118"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I344" s="7">
-        <f t="shared" si="119"/>
+        <v>55</v>
+      </c>
+      <c r="J344" s="7">
         <v>65</v>
       </c>
-      <c r="J344" s="7">
-        <f t="shared" si="120"/>
-        <v>55</v>
-      </c>
       <c r="K344" s="7">
-        <f t="shared" si="121"/>
+        <v>95</v>
+      </c>
+      <c r="L344" s="7">
         <v>105</v>
       </c>
-      <c r="L344" s="7">
-        <f t="shared" si="122"/>
-        <v>95</v>
-      </c>
       <c r="M344" s="7">
-        <f t="shared" si="123"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N344" s="7">
         <f t="shared" si="124"/>
@@ -26434,16 +26431,16 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B345" t="s">
         <v>858</v>
       </c>
-      <c r="B345" t="s">
-        <v>859</v>
-      </c>
       <c r="C345" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D345" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E345" s="7">
         <v>1</v>
@@ -26509,16 +26506,16 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B346" t="s">
         <v>861</v>
       </c>
-      <c r="B346" t="s">
-        <v>862</v>
-      </c>
       <c r="C346" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D346" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E346" s="7">
         <v>1</v>
@@ -26573,16 +26570,16 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B347" t="s">
         <v>863</v>
       </c>
-      <c r="B347" t="s">
-        <v>864</v>
-      </c>
       <c r="C347" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D347" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E347" s="7">
         <v>1</v>
@@ -26637,16 +26634,16 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B348" t="s">
         <v>865</v>
       </c>
-      <c r="B348" t="s">
-        <v>866</v>
-      </c>
       <c r="C348" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D348" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E348" s="7">
         <v>1</v>
@@ -26712,16 +26709,16 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B349" t="s">
         <v>867</v>
       </c>
-      <c r="B349" t="s">
-        <v>868</v>
-      </c>
       <c r="C349" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D349" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E349" s="7">
         <v>1</v>
@@ -26773,13 +26770,13 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B350" t="s">
         <v>870</v>
       </c>
-      <c r="B350" t="s">
-        <v>871</v>
-      </c>
       <c r="C350" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E350" s="7">
         <v>1</v>
@@ -26845,16 +26842,16 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B351" t="s">
         <v>873</v>
       </c>
-      <c r="B351" t="s">
-        <v>874</v>
-      </c>
       <c r="C351" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D351" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E351" s="7">
         <v>1</v>
@@ -26906,13 +26903,13 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B352" t="s">
         <v>876</v>
       </c>
-      <c r="B352" t="s">
-        <v>877</v>
-      </c>
       <c r="C352" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E352" s="7">
         <v>1</v>
@@ -26978,16 +26975,16 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="B353" t="s">
         <v>878</v>
       </c>
-      <c r="B353" t="s">
-        <v>879</v>
-      </c>
       <c r="C353" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D353" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E353" s="7">
         <v>1</v>
@@ -27042,16 +27039,16 @@
     </row>
     <row r="354" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B354" t="s">
         <v>883</v>
       </c>
-      <c r="B354" t="s">
-        <v>884</v>
-      </c>
       <c r="C354" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D354" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E354" s="7">
         <v>1</v>
@@ -27106,16 +27103,16 @@
     </row>
     <row r="355" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B355" t="s">
         <v>885</v>
       </c>
-      <c r="B355" t="s">
-        <v>886</v>
-      </c>
       <c r="C355" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D355" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E355" s="7">
         <v>1</v>
@@ -27181,16 +27178,16 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B356" t="s">
         <v>887</v>
       </c>
-      <c r="B356" t="s">
-        <v>888</v>
-      </c>
       <c r="C356" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D356" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E356" s="7">
         <v>1</v>
@@ -27245,16 +27242,16 @@
     </row>
     <row r="357" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B357" t="s">
         <v>890</v>
       </c>
-      <c r="B357" t="s">
-        <v>891</v>
-      </c>
       <c r="C357" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D357" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E357" s="7">
         <v>1</v>
@@ -27309,13 +27306,13 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B358" t="s">
         <v>892</v>
       </c>
-      <c r="B358" t="s">
-        <v>893</v>
-      </c>
       <c r="C358" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E358" s="7">
         <v>1</v>
@@ -27381,13 +27378,13 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B359" t="s">
         <v>894</v>
       </c>
-      <c r="B359" t="s">
-        <v>895</v>
-      </c>
       <c r="C359" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E359" s="7">
         <v>1</v>
@@ -27442,13 +27439,13 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B360" t="s">
         <v>896</v>
       </c>
-      <c r="B360" t="s">
-        <v>897</v>
-      </c>
       <c r="C360" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E360" s="7">
         <v>1</v>
@@ -27503,16 +27500,16 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B361" t="s">
         <v>899</v>
       </c>
-      <c r="B361" t="s">
-        <v>900</v>
-      </c>
       <c r="C361" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D361" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E361" s="7">
         <v>1</v>
@@ -27578,16 +27575,16 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B362" t="s">
         <v>901</v>
       </c>
-      <c r="B362" t="s">
-        <v>902</v>
-      </c>
       <c r="C362" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D362" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E362" s="7">
         <v>1</v>
@@ -27642,13 +27639,13 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B363" t="s">
         <v>903</v>
       </c>
-      <c r="B363" t="s">
-        <v>904</v>
-      </c>
       <c r="C363" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E363" s="7">
         <v>1</v>
@@ -27703,13 +27700,13 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B364" t="s">
         <v>905</v>
       </c>
-      <c r="B364" t="s">
-        <v>906</v>
-      </c>
       <c r="C364" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E364" s="7">
         <v>1</v>
@@ -27775,13 +27772,13 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B365" t="s">
         <v>907</v>
       </c>
-      <c r="B365" t="s">
-        <v>908</v>
-      </c>
       <c r="C365" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E365" s="7">
         <v>1</v>
@@ -27836,13 +27833,13 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B366" t="s">
         <v>909</v>
       </c>
-      <c r="B366" t="s">
-        <v>910</v>
-      </c>
       <c r="C366" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E366" s="7">
         <v>1</v>
@@ -27897,16 +27894,16 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B367" t="s">
         <v>911</v>
       </c>
-      <c r="B367" t="s">
-        <v>912</v>
-      </c>
       <c r="C367" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D367" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E367" s="7">
         <v>1</v>
@@ -27972,16 +27969,16 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B368" t="s">
         <v>914</v>
       </c>
-      <c r="B368" t="s">
-        <v>915</v>
-      </c>
       <c r="C368" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D368" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E368" s="7">
         <v>1</v>
@@ -28036,16 +28033,16 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B369" t="s">
         <v>916</v>
       </c>
-      <c r="B369" t="s">
-        <v>917</v>
-      </c>
       <c r="C369" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D369" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E369" s="7">
         <v>1</v>
@@ -28111,16 +28108,16 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B370" t="s">
         <v>918</v>
       </c>
-      <c r="B370" t="s">
-        <v>919</v>
-      </c>
       <c r="C370" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D370" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E370" s="7">
         <v>1</v>
@@ -28175,16 +28172,16 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B371" t="s">
         <v>920</v>
       </c>
-      <c r="B371" t="s">
-        <v>921</v>
-      </c>
       <c r="C371" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D371" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E371" s="7">
         <v>1</v>
@@ -28250,16 +28247,16 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B372" t="s">
         <v>923</v>
       </c>
-      <c r="B372" t="s">
-        <v>924</v>
-      </c>
       <c r="C372" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D372" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E372" s="7">
         <v>1</v>
@@ -28314,16 +28311,16 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B373" t="s">
         <v>923</v>
       </c>
-      <c r="B373" t="s">
-        <v>924</v>
-      </c>
       <c r="C373" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D373" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E373" s="7">
         <v>1</v>
@@ -28389,16 +28386,16 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B374" t="s">
         <v>926</v>
       </c>
-      <c r="B374" t="s">
-        <v>927</v>
-      </c>
       <c r="C374" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D374" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E374" s="7">
         <v>1</v>
@@ -28453,13 +28450,13 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B375" t="s">
         <v>929</v>
       </c>
-      <c r="B375" t="s">
-        <v>930</v>
-      </c>
       <c r="C375" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E375" s="7">
         <v>1</v>
@@ -28514,13 +28511,13 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B376" t="s">
         <v>931</v>
       </c>
-      <c r="B376" t="s">
-        <v>932</v>
-      </c>
       <c r="C376" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E376" s="7">
         <v>1</v>
@@ -28586,16 +28583,16 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B377" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C377" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D377" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E377" s="7">
         <v>1</v>
@@ -28650,13 +28647,13 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B378" t="s">
         <v>935</v>
       </c>
-      <c r="B378" t="s">
-        <v>936</v>
-      </c>
       <c r="C378" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E378" s="7">
         <v>1</v>
@@ -28711,13 +28708,13 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B379" t="s">
         <v>938</v>
       </c>
-      <c r="B379" t="s">
-        <v>939</v>
-      </c>
       <c r="C379" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E379" s="7">
         <v>1</v>
@@ -28783,13 +28780,13 @@
     </row>
     <row r="380" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C380" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D380"/>
       <c r="E380" s="7">
@@ -28810,20 +28807,17 @@
         <v>80</v>
       </c>
       <c r="J380" s="7">
-        <f t="shared" si="120"/>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K380" s="7">
         <f t="shared" si="121"/>
         <v>65</v>
       </c>
       <c r="L380" s="7">
-        <f t="shared" si="122"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M380" s="7">
-        <f t="shared" si="123"/>
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N380" s="7">
         <f t="shared" si="124"/>
@@ -28845,16 +28839,16 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B381" t="s">
         <v>941</v>
       </c>
-      <c r="B381" t="s">
-        <v>942</v>
-      </c>
       <c r="C381" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D381" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E381" s="7">
         <v>1</v>
@@ -28909,16 +28903,16 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B382" t="s">
         <v>945</v>
       </c>
-      <c r="B382" t="s">
-        <v>946</v>
-      </c>
       <c r="C382" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D382" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E382" s="7">
         <v>1</v>
@@ -28984,16 +28978,16 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B383" t="s">
         <v>945</v>
       </c>
-      <c r="B383" t="s">
-        <v>946</v>
-      </c>
       <c r="C383" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D383" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E383" s="7">
         <v>1</v>
@@ -29045,16 +29039,16 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B384" t="s">
         <v>945</v>
       </c>
-      <c r="B384" t="s">
-        <v>946</v>
-      </c>
       <c r="C384" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D384" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E384" s="7">
         <v>1</v>
@@ -29120,16 +29114,16 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B385" t="s">
         <v>945</v>
       </c>
-      <c r="B385" t="s">
-        <v>946</v>
-      </c>
       <c r="C385" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D385" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E385" s="7">
         <v>1</v>
@@ -29181,16 +29175,16 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B386" t="s">
         <v>945</v>
       </c>
-      <c r="B386" t="s">
-        <v>946</v>
-      </c>
       <c r="C386" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D386" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E386" s="7">
         <v>1</v>
@@ -29256,16 +29250,16 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B387" t="s">
         <v>945</v>
       </c>
-      <c r="B387" t="s">
-        <v>946</v>
-      </c>
       <c r="C387" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D387" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E387" s="7">
         <v>1</v>
@@ -29317,13 +29311,13 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B388" t="s">
         <v>947</v>
       </c>
-      <c r="B388" t="s">
-        <v>948</v>
-      </c>
       <c r="C388" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E388" s="7">
         <v>1</v>
@@ -29389,16 +29383,16 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B389" t="s">
         <v>950</v>
       </c>
-      <c r="B389" t="s">
-        <v>951</v>
-      </c>
       <c r="C389" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D389" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E389" s="7">
         <v>1</v>
@@ -29453,16 +29447,16 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B390" t="s">
         <v>952</v>
       </c>
-      <c r="B390" t="s">
-        <v>953</v>
-      </c>
       <c r="C390" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D390" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E390" s="7">
         <v>1</v>
@@ -29528,16 +29522,16 @@
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B391" t="s">
         <v>954</v>
       </c>
-      <c r="B391" t="s">
-        <v>955</v>
-      </c>
       <c r="C391" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D391" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E391" s="7">
         <v>1</v>
@@ -29592,16 +29586,16 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B392" t="s">
         <v>956</v>
       </c>
-      <c r="B392" t="s">
-        <v>957</v>
-      </c>
       <c r="C392" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D392" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E392" s="7">
         <v>1</v>
@@ -29667,13 +29661,13 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B393" t="s">
         <v>958</v>
       </c>
-      <c r="B393" t="s">
-        <v>959</v>
-      </c>
       <c r="C393" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E393" s="7">
         <v>1</v>
@@ -29728,13 +29722,13 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B394" t="s">
         <v>960</v>
       </c>
-      <c r="B394" t="s">
-        <v>961</v>
-      </c>
       <c r="C394" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E394" s="7">
         <v>1</v>
@@ -29789,16 +29783,16 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B395" t="s">
         <v>962</v>
       </c>
-      <c r="B395" t="s">
-        <v>963</v>
-      </c>
       <c r="C395" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D395" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E395" s="7">
         <v>1</v>
@@ -29864,13 +29858,13 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B396" t="s">
         <v>964</v>
       </c>
-      <c r="B396" t="s">
-        <v>965</v>
-      </c>
       <c r="C396" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E396" s="7">
         <v>1</v>
@@ -29925,13 +29919,13 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B397" t="s">
         <v>966</v>
       </c>
-      <c r="B397" t="s">
-        <v>967</v>
-      </c>
       <c r="C397" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E397" s="7">
         <v>1</v>
@@ -29986,16 +29980,16 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B398" t="s">
         <v>969</v>
       </c>
-      <c r="B398" t="s">
-        <v>970</v>
-      </c>
       <c r="C398" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D398" t="s">
         <v>1020</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1021</v>
       </c>
       <c r="E398" s="7">
         <v>1</v>
@@ -30061,16 +30055,16 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B399" t="s">
         <v>971</v>
       </c>
-      <c r="B399" t="s">
-        <v>972</v>
-      </c>
       <c r="C399" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D399" t="s">
         <v>1020</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1021</v>
       </c>
       <c r="E399" s="7">
         <v>1</v>
@@ -30125,16 +30119,16 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B400" t="s">
         <v>973</v>
       </c>
-      <c r="B400" t="s">
-        <v>974</v>
-      </c>
       <c r="C400" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D400" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E400" s="7">
         <v>1</v>
@@ -30189,16 +30183,16 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B401" t="s">
         <v>975</v>
       </c>
-      <c r="B401" t="s">
-        <v>976</v>
-      </c>
       <c r="C401" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D401" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E401" s="7">
         <v>1</v>
@@ -30264,16 +30258,16 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B402" t="s">
         <v>977</v>
       </c>
-      <c r="B402" t="s">
-        <v>978</v>
-      </c>
       <c r="C402" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D402" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E402" s="7">
         <v>1</v>
@@ -30328,16 +30322,16 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B403" t="s">
         <v>979</v>
       </c>
-      <c r="B403" t="s">
-        <v>980</v>
-      </c>
       <c r="C403" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D403" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E403" s="7">
         <v>1</v>
@@ -30392,13 +30386,13 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B404" t="s">
         <v>981</v>
       </c>
-      <c r="B404" t="s">
-        <v>982</v>
-      </c>
       <c r="C404" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E404" s="7">
         <v>1</v>
@@ -30464,13 +30458,13 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B405" t="s">
         <v>984</v>
       </c>
-      <c r="B405" t="s">
-        <v>985</v>
-      </c>
       <c r="C405" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E405" s="7">
         <v>1</v>
@@ -30525,13 +30519,13 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B406" t="s">
         <v>986</v>
       </c>
-      <c r="B406" t="s">
-        <v>987</v>
-      </c>
       <c r="C406" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E406" s="7">
         <v>1</v>
@@ -30586,13 +30580,13 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B407" t="s">
         <v>988</v>
       </c>
-      <c r="B407" t="s">
-        <v>989</v>
-      </c>
       <c r="C407" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E407" s="7">
         <v>1</v>
@@ -30658,16 +30652,16 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B408" t="s">
         <v>990</v>
       </c>
-      <c r="B408" t="s">
-        <v>991</v>
-      </c>
       <c r="C408" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D408" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E408" s="7">
         <v>1</v>
@@ -30722,16 +30716,16 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B409" t="s">
         <v>992</v>
       </c>
-      <c r="B409" t="s">
-        <v>993</v>
-      </c>
       <c r="C409" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D409" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E409" s="7">
         <v>1</v>
@@ -30786,16 +30780,16 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B410" t="s">
         <v>994</v>
       </c>
-      <c r="B410" t="s">
-        <v>995</v>
-      </c>
       <c r="C410" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D410" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E410" s="7">
         <v>1</v>
@@ -30861,16 +30855,16 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B411" t="s">
         <v>996</v>
       </c>
-      <c r="B411" t="s">
-        <v>997</v>
-      </c>
       <c r="C411" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D411" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E411" s="7">
         <v>1</v>
@@ -30925,16 +30919,16 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B412" t="s">
         <v>998</v>
       </c>
-      <c r="B412" t="s">
-        <v>999</v>
-      </c>
       <c r="C412" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D412" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E412" s="7">
         <v>1</v>
@@ -30989,13 +30983,13 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B413" t="s">
         <v>1000</v>
       </c>
-      <c r="B413" t="s">
-        <v>1001</v>
-      </c>
       <c r="C413" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E413" s="7">
         <v>1</v>
@@ -31061,16 +31055,16 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B414" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C414" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D414" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E414" s="7">
         <v>1</v>
@@ -31086,8 +31080,7 @@
         <v>92</v>
       </c>
       <c r="I414" s="7">
-        <f t="shared" si="142"/>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="J414" s="7">
         <f t="shared" si="143"/>
@@ -31098,16 +31091,14 @@
         <v>80</v>
       </c>
       <c r="L414" s="7">
-        <f t="shared" si="145"/>
         <v>115</v>
       </c>
       <c r="M414" s="7">
-        <f t="shared" si="146"/>
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N414" s="7">
         <f t="shared" si="147"/>
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="P414" s="2" t="str">
         <f t="shared" ref="P414:P415" si="155">P413</f>
@@ -31125,13 +31116,13 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B415" t="s">
         <v>1003</v>
       </c>
-      <c r="B415" t="s">
-        <v>1004</v>
-      </c>
       <c r="C415" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E415" s="7">
         <v>1</v>
@@ -31186,16 +31177,16 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B416" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C416" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D416" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E416" s="7">
         <v>1</v>
@@ -31215,24 +31206,21 @@
         <v>130</v>
       </c>
       <c r="J416" s="7">
-        <f t="shared" si="143"/>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K416" s="7">
         <f t="shared" si="144"/>
         <v>80</v>
       </c>
       <c r="L416" s="7">
-        <f t="shared" si="145"/>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="M416" s="7">
-        <f t="shared" si="146"/>
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N416" s="7">
         <f t="shared" si="147"/>
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="P416" s="2" t="s">
         <v>433</v>
@@ -31261,16 +31249,16 @@
     </row>
     <row r="417" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B417" t="s">
         <v>1006</v>
       </c>
-      <c r="B417" t="s">
-        <v>1007</v>
-      </c>
       <c r="C417" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D417" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E417" s="7">
         <v>1</v>
@@ -40743,12 +40731,12 @@
       <c r="U914" s="2"/>
       <c r="V914" s="2"/>
       <c r="W914" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="915" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P915" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q915" s="2">
         <v>43</v>
@@ -40799,12 +40787,12 @@
       <c r="U917" s="2"/>
       <c r="V917" s="2"/>
       <c r="W917" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="918" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P918" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q918" s="2">
         <v>85</v>
@@ -40855,12 +40843,12 @@
       <c r="U920" s="2"/>
       <c r="V920" s="2"/>
       <c r="W920" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="921" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P921" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q921" s="2">
         <v>40</v>
@@ -40916,7 +40904,7 @@
     </row>
     <row r="924" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P924" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q924" s="2">
         <v>60</v>
@@ -40972,7 +40960,7 @@
     </row>
     <row r="927" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P927" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q927" s="2">
         <v>90</v>
@@ -41023,12 +41011,12 @@
       <c r="U929" s="2"/>
       <c r="V929" s="2"/>
       <c r="W929" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="930" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P930" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q930" s="2">
         <v>100</v>
@@ -41049,7 +41037,7 @@
         <v>80</v>
       </c>
       <c r="W930" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="931" spans="16:23" x14ac:dyDescent="0.3">
@@ -41069,7 +41057,7 @@
     </row>
     <row r="932" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P932" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q932" s="2">
         <v>58</v>
@@ -41090,7 +41078,7 @@
         <v>97</v>
       </c>
       <c r="W932" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="933" spans="16:23" x14ac:dyDescent="0.3">
@@ -41107,7 +41095,7 @@
     </row>
     <row r="934" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P934" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q934" s="2">
         <v>65</v>
@@ -41148,7 +41136,7 @@
     </row>
     <row r="936" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P936" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q936" s="2">
         <v>78</v>
@@ -41169,7 +41157,7 @@
         <v>36</v>
       </c>
       <c r="W936" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="937" spans="16:23" x14ac:dyDescent="0.3">
@@ -41184,7 +41172,7 @@
       <c r="U937" s="2"/>
       <c r="V937" s="2"/>
       <c r="W937" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="938" spans="16:23" x14ac:dyDescent="0.3">
@@ -41199,12 +41187,12 @@
       <c r="U938" s="2"/>
       <c r="V938" s="2"/>
       <c r="W938" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="939" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P939" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q939" s="2">
         <v>60</v>
@@ -41242,7 +41230,7 @@
     </row>
     <row r="941" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P941" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q941" s="2">
         <v>65</v>
@@ -41298,7 +41286,7 @@
     </row>
     <row r="944" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P944" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q944" s="2">
         <v>30</v>
@@ -41334,12 +41322,12 @@
       <c r="U945" s="2"/>
       <c r="V945" s="2"/>
       <c r="W945" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="946" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P946" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q946" s="2">
         <v>70</v>
@@ -41375,12 +41363,12 @@
       <c r="U947" s="2"/>
       <c r="V947" s="2"/>
       <c r="W947" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="948" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P948" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q948" s="2">
         <v>50</v>
@@ -41421,7 +41409,7 @@
     </row>
     <row r="950" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P950" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q950" s="2">
         <v>80</v>
@@ -41462,7 +41450,7 @@
     </row>
     <row r="952" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P952" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q952" s="2">
         <v>48</v>
@@ -41498,12 +41486,12 @@
       <c r="U953" s="2"/>
       <c r="V953" s="2"/>
       <c r="W953" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="954" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P954" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q954" s="2">
         <v>45</v>
@@ -41559,7 +41547,7 @@
     </row>
     <row r="957" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P957" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q957" s="2">
         <v>85</v>
@@ -41615,7 +41603,7 @@
     </row>
     <row r="960" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P960" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q960" s="2">
         <v>130</v>
@@ -41671,7 +41659,7 @@
     </row>
     <row r="963" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P963" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Q963" s="2">
         <v>170</v>
@@ -41727,7 +41715,7 @@
     </row>
     <row r="966" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P966" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q966" s="2">
         <v>55</v>
@@ -41783,7 +41771,7 @@
     </row>
     <row r="969" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P969" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Q969" s="2">
         <v>95</v>
@@ -41839,7 +41827,7 @@
     </row>
     <row r="972" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P972" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q972" s="2">
         <v>70</v>
@@ -41860,7 +41848,7 @@
         <v>40</v>
       </c>
       <c r="W972" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="973" spans="16:23" x14ac:dyDescent="0.3">
@@ -41877,7 +41865,7 @@
     </row>
     <row r="974" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P974" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q974" s="2">
         <v>130</v>
@@ -41933,7 +41921,7 @@
     </row>
     <row r="977" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P977" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q977" s="2">
         <v>90</v>
@@ -41971,7 +41959,7 @@
     </row>
     <row r="979" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P979" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q979" s="2">
         <v>90</v>
@@ -42009,7 +41997,7 @@
     </row>
     <row r="981" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P981" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q981" s="2">
         <v>20</v>
@@ -42045,7 +42033,7 @@
       <c r="U982" s="2"/>
       <c r="V982" s="2"/>
       <c r="W982" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="983" spans="16:23" x14ac:dyDescent="0.3">
@@ -42065,7 +42053,7 @@
     </row>
     <row r="984" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P984" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Q984" s="2">
         <v>50</v>
@@ -42101,7 +42089,7 @@
       <c r="U985" s="2"/>
       <c r="V985" s="2"/>
       <c r="W985" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="986" spans="16:23" x14ac:dyDescent="0.3">
@@ -42121,7 +42109,7 @@
     </row>
     <row r="987" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P987" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="Q987" s="2">
         <v>80</v>
@@ -42142,7 +42130,7 @@
         <v>70</v>
       </c>
       <c r="W987" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="988" spans="16:23" x14ac:dyDescent="0.3">
@@ -42157,7 +42145,7 @@
       <c r="U988" s="2"/>
       <c r="V988" s="2"/>
       <c r="W988" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="989" spans="16:23" x14ac:dyDescent="0.3">
@@ -42177,7 +42165,7 @@
     </row>
     <row r="990" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P990" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q990" s="2">
         <v>70</v>
@@ -42218,7 +42206,7 @@
     </row>
     <row r="992" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P992" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q992" s="2">
         <v>105</v>
@@ -42239,7 +42227,7 @@
         <v>95</v>
       </c>
       <c r="W992" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="993" spans="16:23" x14ac:dyDescent="0.3">
@@ -42254,12 +42242,12 @@
       <c r="U993" s="2"/>
       <c r="V993" s="2"/>
       <c r="W993" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="994" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P994" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q994" s="2">
         <v>100</v>
@@ -42280,7 +42268,7 @@
         <v>70</v>
       </c>
       <c r="W994" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="995" spans="16:23" x14ac:dyDescent="0.3">
@@ -42297,7 +42285,7 @@
     </row>
     <row r="996" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P996" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q996" s="2">
         <v>75</v>
@@ -42318,7 +42306,7 @@
         <v>50</v>
       </c>
       <c r="W996" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="997" spans="16:23" x14ac:dyDescent="0.3">
@@ -42335,7 +42323,7 @@
     </row>
     <row r="998" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P998" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q998" s="2">
         <v>70</v>
@@ -42356,7 +42344,7 @@
         <v>85</v>
       </c>
       <c r="W998" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="999" spans="16:23" x14ac:dyDescent="0.3">
@@ -42386,12 +42374,12 @@
       <c r="U1000" s="2"/>
       <c r="V1000" s="2"/>
       <c r="W1000" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1001" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1001" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="Q1001" s="2">
         <v>50</v>
@@ -42429,7 +42417,7 @@
     </row>
     <row r="1003" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1003" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Q1003" s="2">
         <v>48</v>
@@ -42465,12 +42453,12 @@
       <c r="U1004" s="2"/>
       <c r="V1004" s="2"/>
       <c r="W1004" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1005" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1005" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q1005" s="2">
         <v>90</v>
@@ -42526,7 +42514,7 @@
     </row>
     <row r="1008" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1008" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Q1008" s="2">
         <v>90</v>
@@ -42582,7 +42570,7 @@
     </row>
     <row r="1011" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1011" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Q1011" s="2">
         <v>90</v>
@@ -42638,7 +42626,7 @@
     </row>
     <row r="1014" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1014" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Q1014" s="2">
         <v>90</v>
@@ -42694,7 +42682,7 @@
     </row>
     <row r="1017" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1017" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Q1017" s="2">
         <v>39</v>
@@ -42735,7 +42723,7 @@
     </row>
     <row r="1019" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1019" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q1019" s="2">
         <v>58</v>
@@ -42776,7 +42764,7 @@
     </row>
     <row r="1021" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1021" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q1021" s="2">
         <v>78</v>
@@ -42817,7 +42805,7 @@
     </row>
     <row r="1023" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1023" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q1023" s="2">
         <v>95</v>
@@ -42855,7 +42843,7 @@
     </row>
     <row r="1025" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1025" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q1025" s="2">
         <v>95</v>
@@ -42876,7 +42864,7 @@
         <v>95</v>
       </c>
       <c r="W1025" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1026" spans="16:23" x14ac:dyDescent="0.3">
@@ -42893,7 +42881,7 @@
     </row>
     <row r="1027" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1027" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q1027" s="2">
         <v>50</v>
@@ -42934,7 +42922,7 @@
     </row>
     <row r="1029" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1029" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q1029" s="2">
         <v>70</v>
@@ -42972,7 +42960,7 @@
     </row>
     <row r="1031" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1031" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q1031" s="2">
         <v>100</v>
@@ -43013,7 +43001,7 @@
     </row>
     <row r="1033" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1033" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q1033" s="2">
         <v>52</v>
@@ -43051,7 +43039,7 @@
     </row>
     <row r="1035" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1035" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q1035" s="2">
         <v>72</v>
@@ -43089,7 +43077,7 @@
     </row>
     <row r="1037" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1037" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q1037" s="2">
         <v>92</v>
@@ -43127,7 +43115,7 @@
     </row>
     <row r="1039" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1039" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q1039" s="2">
         <v>45</v>
@@ -43148,7 +43136,7 @@
         <v>40</v>
       </c>
       <c r="W1039" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1040" spans="16:23" x14ac:dyDescent="0.3">
@@ -43178,12 +43166,12 @@
       <c r="U1041" s="2"/>
       <c r="V1041" s="2"/>
       <c r="W1041" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1042" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1042" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q1042" s="2">
         <v>68</v>
@@ -43204,7 +43192,7 @@
         <v>60</v>
       </c>
       <c r="W1042" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1043" spans="16:23" x14ac:dyDescent="0.3">
@@ -43234,12 +43222,12 @@
       <c r="U1044" s="2"/>
       <c r="V1044" s="2"/>
       <c r="W1044" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1045" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1045" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q1045" s="2">
         <v>90</v>
@@ -43260,7 +43248,7 @@
         <v>80</v>
       </c>
       <c r="W1045" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1046" spans="16:23" x14ac:dyDescent="0.3">
@@ -43290,12 +43278,12 @@
       <c r="U1047" s="2"/>
       <c r="V1047" s="2"/>
       <c r="W1047" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1048" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1048" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q1048" s="2">
         <v>45</v>
@@ -43351,7 +43339,7 @@
     </row>
     <row r="1051" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1051" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q1051" s="2">
         <v>55</v>
@@ -43407,7 +43395,7 @@
     </row>
     <row r="1054" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1054" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q1054" s="2">
         <v>75</v>
@@ -43463,7 +43451,7 @@
     </row>
     <row r="1057" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1057" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q1057" s="2">
         <v>28</v>
@@ -43519,7 +43507,7 @@
     </row>
     <row r="1060" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1060" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q1060" s="2">
         <v>68</v>
@@ -43575,7 +43563,7 @@
     </row>
     <row r="1063" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1063" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q1063" s="2">
         <v>88</v>
@@ -43631,7 +43619,7 @@
     </row>
     <row r="1066" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1066" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q1066" s="2">
         <v>92</v>
@@ -43652,7 +43640,7 @@
         <v>138</v>
       </c>
       <c r="W1066" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1067" spans="16:23" x14ac:dyDescent="0.3">
@@ -43669,7 +43657,7 @@
     </row>
     <row r="1068" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1068" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="Q1068" s="2">
         <v>92</v>
@@ -43690,7 +43678,7 @@
         <v>138</v>
       </c>
       <c r="W1068" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1069" spans="16:23" x14ac:dyDescent="0.3">
@@ -43707,7 +43695,7 @@
     </row>
     <row r="1070" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P1070" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q1070" s="2">
         <v>140</v>
